--- a/3_twitter.xlsx
+++ b/3_twitter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Twitter Handle</t>
   </si>
@@ -49,64 +49,52 @@
     <t>Unnamed: 10</t>
   </si>
   <si>
-    <t>Newswire IO (newswireio)</t>
-  </si>
-  <si>
-    <t>CIAR GLOBAL (CIAR_Global)</t>
-  </si>
-  <si>
-    <t>CentroIberoamericano (CIAR_Arbitraje)</t>
-  </si>
-  <si>
-    <t>Bojami Nguyen (NguyenBojami)</t>
-  </si>
-  <si>
-    <t>David Nguyen (davidvietnguyen)</t>
-  </si>
-  <si>
-    <t>https://twitter.com/newswireio/statuses/748462216266059776</t>
-  </si>
-  <si>
-    <t>https://twitter.com/CIAR_Global/statuses/748829787549011968</t>
-  </si>
-  <si>
-    <t>https://twitter.com/CIAR_Arbitraje/statuses/748834819207987200</t>
-  </si>
-  <si>
-    <t>https://twitter.com/NguyenBojami/statuses/748124799306731520</t>
-  </si>
-  <si>
-    <t>https://twitter.com/davidvietnguyen/statuses/748136832228024320</t>
-  </si>
-  <si>
-    <t>2925 followers</t>
-  </si>
-  <si>
-    <t>88 followers</t>
-  </si>
-  <si>
-    <t>64 followers</t>
-  </si>
-  <si>
-    <t>33 followers</t>
-  </si>
-  <si>
-    <t>20 followers</t>
-  </si>
-  <si>
-    <t>2016-06-30 10:37:26</t>
-  </si>
-  <si>
-    <t>2016-07-01 10:52:25</t>
-  </si>
-  <si>
-    <t>2016-07-01 11:07:26</t>
-  </si>
-  <si>
-    <t>2016-06-29 12:07:36</t>
-  </si>
-  <si>
-    <t>2016-06-29 12:52:47</t>
+    <t>AIPatHome (AIPatHome)</t>
+  </si>
+  <si>
+    <t>marlene (SavaneWorld)</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AIPatHome/statuses/733595035338317824</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AIPatHome/statuses/733695686412111872</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AIPatHome/statuses/733324873745846273</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AIPatHome/statuses/733394384113127424</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SavaneWorld/statuses/733397627912364032</t>
+  </si>
+  <si>
+    <t>1026 followers</t>
+  </si>
+  <si>
+    <t>1025 followers</t>
+  </si>
+  <si>
+    <t>1024 followers</t>
+  </si>
+  <si>
+    <t>617 followers</t>
+  </si>
+  <si>
+    <t>2016-05-20 09:52:28</t>
+  </si>
+  <si>
+    <t>2016-05-20 16:37:39</t>
+  </si>
+  <si>
+    <t>2016-05-19 16:07:29</t>
+  </si>
+  <si>
+    <t>2016-05-19 20:37:27</t>
+  </si>
+  <si>
+    <t>2016-05-19 20:52:37</t>
   </si>
 </sst>
 </file>
@@ -522,16 +510,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -539,19 +527,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -559,19 +547,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -579,19 +567,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -599,19 +587,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
